--- a/results.xlsx
+++ b/results.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,503 +440,89 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56</v>
+        <v>358</v>
       </c>
       <c r="C2" t="n">
-        <v>72996</v>
+        <v>96671</v>
       </c>
       <c r="D2" t="n">
-        <v>19.2576442544797</v>
+        <v>17.23473430501391</v>
       </c>
       <c r="E2" t="n">
-        <v>4.608820742774672</v>
+        <v>10.40292399531636</v>
       </c>
       <c r="F2" t="n">
-        <v>8106</v>
+        <v>778</v>
       </c>
       <c r="G2" t="n">
-        <v>22.05674808783617</v>
+        <v>1.868894601542416</v>
       </c>
       <c r="H2" t="n">
-        <v>5.972173762928176</v>
+        <v>1.466321731415824</v>
       </c>
       <c r="I2" t="n">
-        <v>8106</v>
+        <v>778</v>
       </c>
       <c r="J2" t="n">
-        <v>23.43197951205381</v>
+        <v>17.23473430501391</v>
       </c>
       <c r="K2" t="n">
-        <v>3.699799853028612</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>81102</v>
+        <v>97449</v>
       </c>
       <c r="M2" t="n">
-        <v>19.67486160544386</v>
+        <v>17.23473430501391</v>
       </c>
       <c r="N2" t="n">
-        <v>4.696139352357463</v>
+        <v>10.3613136301107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56</v>
+        <v>358</v>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>99151</v>
       </c>
       <c r="D3" t="n">
-        <v>12.31666666666667</v>
+        <v>25.39692993514942</v>
       </c>
       <c r="E3" t="n">
-        <v>1.171579647337942</v>
+        <v>12.93161751182877</v>
       </c>
       <c r="F3" t="n">
-        <v>1998</v>
+        <v>48132</v>
       </c>
       <c r="G3" t="n">
-        <v>3.816316316316316</v>
+        <v>29.41373722263775</v>
       </c>
       <c r="H3" t="n">
-        <v>3.440137477316612</v>
+        <v>14.07314511149565</v>
       </c>
       <c r="I3" t="n">
-        <v>1998</v>
+        <v>48132</v>
       </c>
       <c r="J3" t="n">
-        <v>12.32419085752419</v>
+        <v>33.86517553915566</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07132645546464669</v>
+        <v>8.115560373920257</v>
       </c>
       <c r="L3" t="n">
-        <v>2058</v>
+        <v>147283</v>
       </c>
       <c r="M3" t="n">
-        <v>12.32397149335925</v>
+        <v>28.16434774584059</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2105001281372401</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>56</v>
-      </c>
-      <c r="C4" t="n">
-        <v>160</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.1125</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.698677756832061</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8945</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.012744550027948</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.635453084902106</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8945</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13.13358440469536</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.2025575740484392</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9105</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13.13321389346513</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.409280166633153</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>56</v>
-      </c>
-      <c r="C5" t="n">
-        <v>135</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.94074074074074</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.467897472539265</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7648</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.086035564853557</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.030195206017814</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7648</v>
-      </c>
-      <c r="J5" t="n">
-        <v>14.94074074074074</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>7783</v>
-      </c>
-      <c r="M5" t="n">
-        <v>14.94074074074074</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.4550645817579499</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>56</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1704</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.189553990610329</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8876308174105656</v>
-      </c>
-      <c r="F6" t="n">
-        <v>12206</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.763968540062264</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.029947708391858</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12206</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7.189553990610329</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>13910</v>
-      </c>
-      <c r="M6" t="n">
-        <v>7.189553990610329</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.3105930563660406</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>56</v>
-      </c>
-      <c r="C7" t="n">
-        <v>139</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11.79136690647482</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.882315949945338</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2503</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.877746703955254</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.991767981652202</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2503</v>
-      </c>
-      <c r="J7" t="n">
-        <v>11.79345073681367</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.02075055779780336</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2642</v>
-      </c>
-      <c r="M7" t="n">
-        <v>11.79334110304489</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.4307507501899</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Iran</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>56</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6524</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.753218884120171</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.269808048345728</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10837</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4.133524038017901</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.710257485274855</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10837</v>
-      </c>
-      <c r="J8" t="n">
-        <v>7.012333956826497</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.6185981835162507</v>
-      </c>
-      <c r="L8" t="n">
-        <v>17361</v>
-      </c>
-      <c r="M8" t="n">
-        <v>6.914962449751094</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.480025386483928</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>56</v>
-      </c>
-      <c r="C9" t="n">
-        <v>133</v>
-      </c>
-      <c r="D9" t="n">
-        <v>15.74436090225564</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.659016390489959</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12194</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3.172297851402329</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.384283538479996</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12194</v>
-      </c>
-      <c r="J9" t="n">
-        <v>15.74490597495872</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.01179220901382429</v>
-      </c>
-      <c r="L9" t="n">
-        <v>12327</v>
-      </c>
-      <c r="M9" t="n">
-        <v>15.74490009399259</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.1720828635293635</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>56</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7004</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9.496145059965734</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.069009392807415</v>
-      </c>
-      <c r="F10" t="n">
-        <v>28709</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.644501724197987</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.716633137527785</v>
-      </c>
-      <c r="I10" t="n">
-        <v>28709</v>
-      </c>
-      <c r="J10" t="n">
-        <v>9.502656264910271</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.05690711544792853</v>
-      </c>
-      <c r="L10" t="n">
-        <v>35713</v>
-      </c>
-      <c r="M10" t="n">
-        <v>9.501379293515217</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.4761359029571927</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>56</v>
-      </c>
-      <c r="C11" t="n">
-        <v>13</v>
-      </c>
-      <c r="D11" t="n">
-        <v>12.30769230769231</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.52931530209974</v>
-      </c>
-      <c r="F11" t="n">
-        <v>405</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4.575308641975309</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.440064286189751</v>
-      </c>
-      <c r="I11" t="n">
-        <v>405</v>
-      </c>
-      <c r="J11" t="n">
-        <v>12.33846153846154</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1428475177327114</v>
-      </c>
-      <c r="L11" t="n">
-        <v>418</v>
-      </c>
-      <c r="M11" t="n">
-        <v>12.3375046006625</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.4515492719613161</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>56</v>
-      </c>
-      <c r="C12" t="n">
-        <v>91940</v>
-      </c>
-      <c r="D12" t="n">
-        <v>18.54253861213835</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3.493442745940781</v>
-      </c>
-      <c r="F12" t="n">
-        <v>122970</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4.536919573879808</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.904982850547418</v>
-      </c>
-      <c r="I12" t="n">
-        <v>122970</v>
-      </c>
-      <c r="J12" t="n">
-        <v>18.54253861213835</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>214910</v>
-      </c>
-      <c r="M12" t="n">
-        <v>18.54253861213835</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.284947448490993</v>
+        <v>12.24242244569783</v>
       </c>
     </row>
   </sheetData>
